--- a/DataDriven_Core_framework/Data.xlsx
+++ b/DataDriven_Core_framework/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="testcases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Runmode</t>
   </si>
@@ -39,42 +39,15 @@
     <t>A1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
     <t>TestB</t>
   </si>
   <si>
@@ -90,18 +63,6 @@
     <t>B4</t>
   </si>
   <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
     <t>TestC</t>
   </si>
   <si>
@@ -163,6 +124,123 @@
   </si>
   <si>
     <t>TestA2</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>A2.1</t>
+  </si>
+  <si>
+    <t>A2.2</t>
+  </si>
+  <si>
+    <t>A2.3</t>
+  </si>
+  <si>
+    <t>A2.4</t>
+  </si>
+  <si>
+    <t>A2.5</t>
+  </si>
+  <si>
+    <t>A2.6</t>
+  </si>
+  <si>
+    <t>A2.7</t>
+  </si>
+  <si>
+    <t>A2.8</t>
+  </si>
+  <si>
+    <t>A2.9</t>
+  </si>
+  <si>
+    <t>A2.10</t>
+  </si>
+  <si>
+    <t>A2.11</t>
+  </si>
+  <si>
+    <t>A2.12</t>
+  </si>
+  <si>
+    <t>TestA3</t>
+  </si>
+  <si>
+    <t>A3.1</t>
+  </si>
+  <si>
+    <t>A3.3</t>
+  </si>
+  <si>
+    <t>A3.4</t>
+  </si>
+  <si>
+    <t>A3.5</t>
+  </si>
+  <si>
+    <t>A3.6</t>
+  </si>
+  <si>
+    <t>A3.7</t>
+  </si>
+  <si>
+    <t>A3.8</t>
+  </si>
+  <si>
+    <t>A3.9</t>
+  </si>
+  <si>
+    <t>A3.10</t>
+  </si>
+  <si>
+    <t>A3.11</t>
+  </si>
+  <si>
+    <t>A3.2</t>
+  </si>
+  <si>
+    <t>A3.12</t>
+  </si>
+  <si>
+    <t>A1.1</t>
+  </si>
+  <si>
+    <t>A1.2</t>
+  </si>
+  <si>
+    <t>A1.3</t>
+  </si>
+  <si>
+    <t>A1.4</t>
+  </si>
+  <si>
+    <t>A1.5</t>
+  </si>
+  <si>
+    <t>A1.6</t>
+  </si>
+  <si>
+    <t>A1.7</t>
+  </si>
+  <si>
+    <t>A1.8</t>
+  </si>
+  <si>
+    <t>A1.9</t>
+  </si>
+  <si>
+    <t>A1.10</t>
+  </si>
+  <si>
+    <t>A1.11</t>
+  </si>
+  <si>
+    <t>A1.12</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -233,12 +311,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,17 +659,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,36 +691,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
+        <v>64</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,21 +728,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,71 +774,96 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,26 +871,45 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,67 +934,32 @@
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>14</v>
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -869,16 +967,43 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="4" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -891,7 +1016,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,51 +1026,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -955,12 +1080,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataDriven_Core_framework/Data.xlsx
+++ b/DataDriven_Core_framework/Data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,26 +414,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +754,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>41</v>
